--- a/new_inputs/GBDtoGHE.xlsx
+++ b/new_inputs/GBDtoGHE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\NCD-Countdown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\NCD-Countdown\new_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4248719-B261-4BE0-B6EC-D8F0BECD3AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4A21C-3D55-4F5D-A82D-804A10449887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="276">
   <si>
     <t>x</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Pancreatitis</t>
   </si>
   <si>
-    <t>Aortic aneurysm</t>
-  </si>
-  <si>
     <t>Prostate cancer</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>Peptic ulcer disease</t>
   </si>
   <si>
-    <t>Atrial fibrillation and flutter</t>
-  </si>
-  <si>
     <t>Drowning</t>
   </si>
   <si>
@@ -196,12 +190,6 @@
     <t>Paralytic ileus and intestinal obstruction</t>
   </si>
   <si>
-    <t>Paratyphoid fever</t>
-  </si>
-  <si>
-    <t>Typhoid fever</t>
-  </si>
-  <si>
     <t>Esophageal cancer</t>
   </si>
   <si>
@@ -817,21 +805,9 @@
     <t>notes</t>
   </si>
   <si>
-    <t>Heart failure due to ischemic heart disease</t>
-  </si>
-  <si>
-    <t>Heart failure due to myocarditis</t>
-  </si>
-  <si>
     <t>probably the closest analogue?</t>
   </si>
   <si>
-    <t>from tobacco/alcohol PAFs. Might need to make some kind of assumption.</t>
-  </si>
-  <si>
-    <t>see above</t>
-  </si>
-  <si>
     <t>also includes intracerebral hemorrhage</t>
   </si>
   <si>
@@ -859,12 +835,6 @@
     <t>CKD due to DM2/CKD due to Diabetes</t>
   </si>
   <si>
-    <t>no ghe cause</t>
-  </si>
-  <si>
-    <t>no ghe cause, but need for costing…</t>
-  </si>
-  <si>
     <t>Myo/Myo+ACM+OCM+Endo</t>
   </si>
   <si>
@@ -887,6 +857,9 @@
   </si>
   <si>
     <t>Lung cancer</t>
+  </si>
+  <si>
+    <t>Other chronic respiratory diseases</t>
   </si>
 </sst>
 </file>
@@ -894,7 +867,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1032,7 +1005,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1214,12 +1187,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1391,15 +1358,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1755,129 +1723,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="49.36328125" customWidth="1"/>
     <col min="2" max="2" width="36.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24" style="3" customWidth="1"/>
     <col min="6" max="6" width="42.6328125" customWidth="1"/>
     <col min="9" max="9" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>260</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="4">
         <f>0.98/19.47</f>
         <v>5.0333846944016436E-2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <f>272.54/5555.39</f>
         <v>4.9058661948126053E-2</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>269</v>
+      <c r="E2" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="F2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="4">
         <f>18.49/19.47</f>
         <v>0.94966615305598356</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f>1-D2</f>
         <v>0.95094133805187397</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>269</v>
+      <c r="E3" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="F3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="5">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="4">
         <f>0.98/(0.98+5.16)</f>
         <v>0.15960912052117263</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f>63.43/(63.43+1576.35)</f>
         <v>3.8682018319530671E-2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>273</v>
+      <c r="E4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="5">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="4">
         <f>1-C4</f>
         <v>0.8403908794788274</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f>1-D4</f>
         <v>0.96131798168046934</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>274</v>
+      <c r="E5" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1885,126 +1853,126 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
+        <v>190</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="4">
         <f>1-C8</f>
         <v>0.88550368550368552</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f>1-D8</f>
         <v>0.74302470232806117</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>195</v>
+      <c r="E7" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="F7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="5">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="4">
         <f>4.66/(4.66+36.04)</f>
         <v>0.11449631449631449</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f>14.46/(14.46+41.81)</f>
         <v>0.25697529767193888</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>195</v>
+      <c r="E8" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="4">
         <f>0.43/(0.86+3.11+0.43+0.87)</f>
         <v>8.159392789373815E-2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f>9.07/(8.51+9.07+47.49+5.64)</f>
         <v>0.12827040022627637</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>280</v>
+      <c r="E9" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="F9" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="4">
         <f>0.86/(0.86+3.11+0.43+0.87)</f>
         <v>0.1631878557874763</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f>8.51/(8.51+9.07+47.49+5.64)</f>
         <v>0.12035072832696932</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>280</v>
+      <c r="E10" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="F10" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="4">
         <f>3.11/(0.86+3.11+0.43+0.87)</f>
         <v>0.59013282732447825</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f>47.49/(8.51+9.07+47.49+5.64)</f>
         <v>0.67161646160373367</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>280</v>
+      <c r="E11" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="F11" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -2014,14 +1982,14 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>281</v>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -2031,14 +1999,14 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>281</v>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -2046,16 +2014,16 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4">
+        <v>188</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -2065,14 +2033,14 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>280</v>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -2080,16 +2048,16 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
+        <v>132</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -2099,10 +2067,10 @@
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17" t="s">
@@ -2114,16 +2082,16 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="4">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4">
+        <v>121</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -2133,14 +2101,14 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>282</v>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -2148,16 +2116,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>282</v>
+        <v>117</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -2165,16 +2133,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -2182,33 +2150,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>282</v>
+        <v>118</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>282</v>
+        <v>120</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -2216,28 +2184,33 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>282</v>
+        <v>119</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="E25" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F25" t="s">
-        <v>275</v>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -2245,16 +2218,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>283</v>
+        <v>128</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -2262,16 +2235,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>284</v>
+        <v>53</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -2279,13 +2249,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="4">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -2293,16 +2266,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>283</v>
+        <v>123</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -2310,224 +2283,238 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4" t="s">
         <v>126</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>126</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F31" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F32" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="7">
+        <f>0.62/4.32</f>
+        <v>0.14351851851851852</v>
+      </c>
+      <c r="D32" s="7">
+        <f>12.61/41.64</f>
+        <v>0.30283381364073003</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="E33" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F33" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" s="7">
+        <f>1.22/4.32</f>
+        <v>0.28240740740740738</v>
+      </c>
+      <c r="D33" s="7">
+        <f>2.55/41.64</f>
+        <v>6.1239193083573479E-2</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F34" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="7">
+        <f>0.58/4.32</f>
+        <v>0.13425925925925924</v>
+      </c>
+      <c r="D34" s="7">
+        <f>7.84/41.64</f>
+        <v>0.18828049951969258</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F35" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="7">
+        <f>0.39/4.32</f>
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="D35" s="7">
+        <f>3.25/41.64</f>
+        <v>7.8049951969260331E-2</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F37" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="7">
+        <f>1.53/4.32</f>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="D38" s="7">
+        <f>15.4/41.64</f>
+        <v>0.3698366954851105</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F40" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="F44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="F45" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>261</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="F46" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>262</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="F47" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2551,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -2559,7 +2546,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2567,7 +2554,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -2575,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -2583,7 +2570,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -2591,7 +2578,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -2599,7 +2586,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -2607,7 +2594,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -2615,7 +2602,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -2623,7 +2610,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -2631,7 +2618,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -2639,7 +2626,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -2647,7 +2634,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2655,7 +2642,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -2663,7 +2650,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2671,7 +2658,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2679,7 +2666,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -2687,7 +2674,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -2695,7 +2682,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -2703,7 +2690,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -2711,7 +2698,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -2719,7 +2706,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -2727,7 +2714,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -2735,7 +2722,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -2743,7 +2730,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -2751,7 +2738,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -2759,7 +2746,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -2767,7 +2754,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -2775,7 +2762,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -2783,7 +2770,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -2791,7 +2778,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -2799,7 +2786,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -2807,7 +2794,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -2815,7 +2802,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -2823,7 +2810,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -2831,7 +2818,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -2839,7 +2826,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -2847,7 +2834,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -2855,7 +2842,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -2863,7 +2850,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -2871,7 +2858,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -2879,7 +2866,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -2887,7 +2874,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -2895,7 +2882,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -2903,7 +2890,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -2911,7 +2898,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -2919,7 +2906,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -2927,7 +2914,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -2935,7 +2922,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -2943,7 +2930,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -2951,7 +2938,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -2959,7 +2946,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -2967,7 +2954,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -2975,7 +2962,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -2983,7 +2970,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -2991,7 +2978,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -2999,7 +2986,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -3007,7 +2994,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -3015,7 +3002,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -3023,7 +3010,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -3031,7 +3018,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -3039,7 +3026,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -3047,7 +3034,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -3055,7 +3042,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -3063,7 +3050,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -3071,7 +3058,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -3079,7 +3066,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -3087,7 +3074,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -3095,7 +3082,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -3103,7 +3090,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -3111,7 +3098,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -3119,7 +3106,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -3127,7 +3114,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -3135,7 +3122,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -3143,7 +3130,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -3151,7 +3138,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -3159,7 +3146,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -3167,7 +3154,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -3175,7 +3162,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -3183,7 +3170,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -3191,7 +3178,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -3207,7 +3194,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -3215,7 +3202,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -3223,7 +3210,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -3231,7 +3218,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -3239,7 +3226,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -3247,7 +3234,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -3255,7 +3242,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -3263,7 +3250,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -3271,7 +3258,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -3287,7 +3274,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -3295,7 +3282,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -3303,7 +3290,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -3311,7 +3298,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -3319,7 +3306,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -3327,7 +3314,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -3335,7 +3322,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -3343,7 +3330,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -3351,7 +3338,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -3359,7 +3346,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -3367,7 +3354,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -3375,7 +3362,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -3383,7 +3370,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -3391,7 +3378,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -3399,7 +3386,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -3407,7 +3394,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -3415,7 +3402,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -3423,7 +3410,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -3431,7 +3418,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -3439,7 +3426,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -3447,7 +3434,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -3463,7 +3450,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -3471,7 +3458,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -3479,7 +3466,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -3487,7 +3474,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -3495,7 +3482,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -3503,7 +3490,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -3511,7 +3498,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -3519,7 +3506,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -3527,7 +3514,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -3535,7 +3522,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -3543,7 +3530,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -3551,7 +3538,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -3559,7 +3546,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -3567,7 +3554,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -3575,7 +3562,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -3583,7 +3570,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -3591,7 +3578,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -3599,7 +3586,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -3607,7 +3594,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -3615,7 +3602,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -3623,7 +3610,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -3631,7 +3618,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -3639,7 +3626,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -3647,7 +3634,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -3655,7 +3642,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -3663,7 +3650,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -3671,7 +3658,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -3679,7 +3666,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -3687,7 +3674,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -3695,7 +3682,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -3703,7 +3690,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -3711,7 +3698,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -3727,7 +3714,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -3735,7 +3722,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -3743,7 +3730,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -3751,7 +3738,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -3759,7 +3746,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -3767,7 +3754,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -3775,7 +3762,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -3799,7 +3786,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -3807,7 +3794,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -3815,7 +3802,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -3823,7 +3810,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -3831,7 +3818,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -3839,7 +3826,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -3847,7 +3834,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -3855,7 +3842,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -3863,7 +3850,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -3871,7 +3858,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -3879,7 +3866,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -3887,7 +3874,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -3895,7 +3882,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -3911,7 +3898,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -3919,7 +3906,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -3927,7 +3914,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -3935,7 +3922,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -3943,7 +3930,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -3951,7 +3938,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -3959,7 +3946,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -3967,7 +3954,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -3975,7 +3962,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -3983,7 +3970,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -3991,7 +3978,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -3999,7 +3986,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -4007,7 +3994,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -4015,7 +4002,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
@@ -4023,7 +4010,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -4031,7 +4018,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
@@ -4039,7 +4026,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -4047,7 +4034,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -4055,7 +4042,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -4063,7 +4050,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -4071,7 +4058,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -4079,7 +4066,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -4087,7 +4074,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
@@ -4095,7 +4082,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
@@ -4103,7 +4090,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -4111,7 +4098,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -4119,7 +4106,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -4127,7 +4114,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -4135,7 +4122,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -4143,7 +4130,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -4151,7 +4138,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
@@ -4159,7 +4146,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -4167,7 +4154,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
@@ -4175,7 +4162,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
@@ -4183,7 +4170,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
@@ -4191,7 +4178,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
@@ -4199,7 +4186,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
@@ -4207,7 +4194,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
@@ -4215,7 +4202,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -4223,7 +4210,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
@@ -4231,7 +4218,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -4239,7 +4226,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
@@ -4247,7 +4234,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -4255,7 +4242,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
@@ -4263,7 +4250,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -4271,7 +4258,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -4279,7 +4266,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
@@ -4287,7 +4274,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
@@ -4295,7 +4282,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
@@ -4303,7 +4290,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
@@ -4319,7 +4306,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
@@ -4327,7 +4314,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/new_inputs/GBDtoGHE.xlsx
+++ b/new_inputs/GBDtoGHE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\NCD-Countdown\new_inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Dropbox\NCDs\new_inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4A21C-3D55-4F5D-A82D-804A10449887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11291B11-E9F0-4388-8E5B-DF7DF00F73AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gbdcauses" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="275">
   <si>
     <t>x</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>Tracheal, bronchus, and lung cancer</t>
-  </si>
-  <si>
-    <t>All causes</t>
   </si>
   <si>
     <t>Bladder cancer</t>
@@ -1725,47 +1722,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.36328125" customWidth="1"/>
-    <col min="2" max="2" width="36.08984375" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="24" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.6328125" customWidth="1"/>
-    <col min="9" max="9" width="17.6328125" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="4">
         <f>0.98/19.47</f>
@@ -1776,18 +1773,18 @@
         <v>4.9058661948126053E-2</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" t="s">
         <v>261</v>
       </c>
-      <c r="F2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="4">
         <f>18.49/19.47</f>
@@ -1798,18 +1795,18 @@
         <v>0.95094133805187397</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" t="s">
         <v>261</v>
       </c>
-      <c r="F3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="4">
         <f>0.98/(0.98+5.16)</f>
@@ -1820,18 +1817,18 @@
         <v>3.8682018319530671E-2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="4">
         <f>1-C4</f>
@@ -1842,18 +1839,18 @@
         <v>0.96131798168046934</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1862,15 +1859,15 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C7" s="4">
         <f>1-C8</f>
@@ -1881,18 +1878,18 @@
         <v>0.74302470232806117</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="4">
         <f>4.66/(4.66+36.04)</f>
@@ -1903,18 +1900,18 @@
         <v>0.25697529767193888</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="4">
         <f>0.43/(0.86+3.11+0.43+0.87)</f>
@@ -1925,18 +1922,18 @@
         <v>0.12827040022627637</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="4">
         <f>0.86/(0.86+3.11+0.43+0.87)</f>
@@ -1947,18 +1944,18 @@
         <v>0.12035072832696932</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C11" s="4">
         <f>3.11/(0.86+3.11+0.43+0.87)</f>
@@ -1969,13 +1966,13 @@
         <v>0.67161646160373367</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1989,10 +1986,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2006,15 +2003,15 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2023,10 +2020,10 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2040,15 +2037,15 @@
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2057,10 +2054,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2077,12 +2074,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2091,10 +2088,10 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2108,15 +2105,15 @@
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2125,15 +2122,15 @@
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -2142,15 +2139,15 @@
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2159,15 +2156,15 @@
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="3">
         <v>1</v>
@@ -2176,15 +2173,15 @@
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2193,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2210,15 +2207,15 @@
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2227,63 +2224,66 @@
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -2292,15 +2292,15 @@
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C31" s="3">
         <v>1</v>
@@ -2309,18 +2309,18 @@
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32" s="7">
         <f>0.62/4.32</f>
@@ -2331,15 +2331,15 @@
         <v>0.30283381364073003</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C33" s="7">
         <f>1.22/4.32</f>
@@ -2350,15 +2350,15 @@
         <v>6.1239193083573479E-2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" s="7">
         <f>0.58/4.32</f>
@@ -2369,15 +2369,15 @@
         <v>0.18828049951969258</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" s="7">
         <f>0.39/4.32</f>
@@ -2388,49 +2388,49 @@
         <v>7.8049951969260331E-2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1</v>
-      </c>
-      <c r="D36" s="8">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B37" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="8">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
       <c r="B38" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C38" s="7">
         <f>1.53/4.32</f>
@@ -2441,32 +2441,32 @@
         <v>0.3698366954851105</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -2475,15 +2475,15 @@
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="3">
         <v>1</v>
@@ -2492,24 +2492,24 @@
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>275</v>
-      </c>
-      <c r="B42" t="s">
-        <v>275</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2522,666 +2522,670 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B224"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="K116" sqref="K116"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:B158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3189,31 +3193,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3221,47 +3225,47 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3269,175 +3273,175 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3445,263 +3449,263 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3709,63 +3713,63 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3773,7 +3777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3781,111 +3785,111 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -3893,407 +3897,407 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -4301,20 +4305,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
